--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\WinCap\source\WinCap.Test\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>ScrollDelayTime</t>
   </si>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>PropertyName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0以上、10000以下の数値を入力してください。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>ScrollDelayTime</t>
   </si>
@@ -50,19 +50,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PropertyName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>0以上、10000以下の数値を入力してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -92,7 +112,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,7 +121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,17 +161,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,82 +491,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestGeneralError" sheetId="1" r:id="rId1"/>
+    <sheet name="TestOutputError" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>ScrollDelayTime</t>
   </si>
@@ -83,6 +84,28 @@
   </si>
   <si>
     <t>10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OutputFolder</t>
+  </si>
+  <si>
+    <t>IsAutoSaveImage</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力フォルダが存在しません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -630,4 +653,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\WinCap\source\WinCap.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\WinCap\source\WinCap.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestGeneralError" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,20 +513,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -594,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -634,7 +634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -656,20 +656,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.73046875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>21</v>

--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\WinCap\source\WinCap.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WinCap\source\WinCap.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestGeneralError" sheetId="1" r:id="rId1"/>
     <sheet name="TestOutputError" sheetId="2" r:id="rId2"/>
+    <sheet name="TestShortcutKeyError" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>ScrollDelayTime</t>
   </si>
@@ -106,6 +107,97 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveControl</t>
+  </si>
+  <si>
+    <t>WebPage</t>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートカットキーの組み合わせが重複しています。</t>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PropertyNames</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectionControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,ActiveControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,SelectionControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveControl,SelectionControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveControl,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectionControl,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,ActiveControl,SelectionControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,SelectionControl,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,ActiveControl,SelectionControl,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,ActiveControl,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveControl,SelectionControl,WebPage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -135,7 +227,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +296,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,17 +617,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>0</v>
@@ -552,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -566,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -580,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -594,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -606,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -620,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -634,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -661,15 +762,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -683,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -707,6 +809,270 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA41BA7-3AF4-4A2F-9BB0-DCE6E26AEBBA}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestGeneralError" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -822,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA41BA7-3AF4-4A2F-9BB0-DCE6E26AEBBA}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WinCap\source\WinCap.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E75197-BBDA-43D7-8F56-D5A86601343B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestGeneralError" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>ScrollDelayTime</t>
   </si>
@@ -185,19 +186,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FullScreen,SelectionControl,WebPage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FullScreen,ActiveControl,SelectionControl,WebPage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FullScreen,ActiveControl,WebPage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ActiveControl,SelectionControl,WebPage</t>
+    <t>SelectionRegion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30,4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,SelectionRegion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,ActiveControl,SelectionControl,SelectionRegion,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveControl,SelectionRegion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectionControl,SelectionRegion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectionRegion,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveControl,SelectionControl,SelectionRegion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectionControl,SelectionRegion,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,ActiveControl,SelectionControl,SelectionRegion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActiveControl,SelectionControl,SelectionRegion,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FullScreen,SelectionRegion,WebPage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -282,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +336,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -820,22 +860,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA41BA7-3AF4-4A2F-9BB0-DCE6E26AEBBA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -846,16 +886,19 @@
         <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -866,16 +909,19 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -886,16 +932,19 @@
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -909,169 +958,357 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WinCap\source\WinCap.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E75197-BBDA-43D7-8F56-D5A86601343B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB80D4-E523-44F3-B96D-5A0CEC66DA01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestGeneralError" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="54">
   <si>
     <t>ScrollDelayTime</t>
   </si>
@@ -235,6 +235,13 @@
   </si>
   <si>
     <t>FullScreen,SelectionRegion,WebPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FixHeaderHeight</t>
+  </si>
+  <si>
+    <t>FixHeaderHeight</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -655,45 +662,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -701,13 +714,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -715,13 +731,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -729,25 +748,31 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -755,13 +780,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,13 +797,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -783,9 +814,78 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -862,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA41BA7-3AF4-4A2F-9BB0-DCE6E26AEBBA}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/source/WinCap.Test/Params.xlsx
+++ b/source/WinCap.Test/Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WinCap\source\WinCap.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB80D4-E523-44F3-B96D-5A0CEC66DA01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E75197-BBDA-43D7-8F56-D5A86601343B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestGeneralError" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>ScrollDelayTime</t>
   </si>
@@ -235,13 +235,6 @@
   </si>
   <si>
     <t>FullScreen,SelectionRegion,WebPage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FixHeaderHeight</t>
-  </si>
-  <si>
-    <t>FixHeaderHeight</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -662,51 +655,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>53</v>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,16 +701,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -731,16 +715,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -748,31 +729,25 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -780,16 +755,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -797,16 +769,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -814,78 +783,9 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -962,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA41BA7-3AF4-4A2F-9BB0-DCE6E26AEBBA}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
